--- a/Ignorar_Backup/Riesgo/DataTarea_Exogenas_Riesgo12.xlsx
+++ b/Ignorar_Backup/Riesgo/DataTarea_Exogenas_Riesgo12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main (1)/CUECOPolMon-main/Riesgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2663\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{984CADC5-1389-4181-AEF6-B59520FC3947}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6D254A-34BA-4FE1-B835-DA1A7CDF5338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>res_Dps</t>
   </si>
@@ -42,34 +42,10 @@
     <t>res_ys</t>
   </si>
   <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>DYs</t>
-  </si>
-  <si>
-    <t>Dpae</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>res_Meta</t>
-  </si>
-  <si>
-    <t>res_DYs_eq</t>
-  </si>
-  <si>
-    <t>res_Dpae</t>
-  </si>
-  <si>
-    <t>res_t</t>
   </si>
   <si>
     <t>res_g</t>
@@ -208,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,6 +229,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,240 +535,176 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>-1.1263190702920389</v>
-      </c>
-      <c r="G3" s="4">
+        <v>-1.226319070292039</v>
+      </c>
+      <c r="C3" s="4">
         <v>1.9430951174366471</v>
       </c>
-      <c r="H3" s="4">
-        <v>-2.324276733848583</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <v>-2.3742767338485828</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>-1.050679211001166</v>
-      </c>
-      <c r="G4" s="4">
+        <v>-1.1506792110011661</v>
+      </c>
+      <c r="C4" s="4">
         <v>1.875390183492327</v>
       </c>
-      <c r="H4" s="4">
-        <v>-1.9001121761291659</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>-2.1501121761291659</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>-1.0203324994536678</v>
-      </c>
-      <c r="G5" s="4">
+        <v>-1.1203324994536679</v>
+      </c>
+      <c r="C5" s="4">
         <v>1.8680305634547001</v>
       </c>
-      <c r="H5" s="4">
-        <v>-1.5223598132153691</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4">
+        <v>-1.7723598132153691</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>-1.0081573987808115</v>
-      </c>
-      <c r="G6" s="4">
+        <v>-1.1081573987808115</v>
+      </c>
+      <c r="C6" s="4">
         <v>1.819435493358821</v>
       </c>
-      <c r="H6" s="4">
-        <v>-1.2139905772327138</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <v>-1.5639905772327138</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>-1.5032727483908617</v>
-      </c>
-      <c r="G7" s="4">
+        <v>-1.6032727483908618</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.828265749973593</v>
       </c>
-      <c r="H7" s="4">
-        <v>-0.97511968629980239</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>-1.3251196862998025</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>-1.5013130266544137</v>
-      </c>
-      <c r="G8" s="4">
+        <v>-1.6013130266544138</v>
+      </c>
+      <c r="C8" s="4">
         <v>1.793386743377628</v>
       </c>
-      <c r="H8" s="4">
-        <v>-0.79666930800362967</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>-1.1466693080036297</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>-1.5005267862937508</v>
-      </c>
-      <c r="G9" s="4">
+        <v>-1.6005267862937509</v>
+      </c>
+      <c r="C9" s="4">
         <v>1.8138372489895269</v>
       </c>
-      <c r="H9" s="4">
-        <v>-0.41703685484402608</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>-0.76703685484402606</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>-1.5002113466610527</v>
-      </c>
-      <c r="G10" s="4">
+        <v>-1.6002113466610528</v>
+      </c>
+      <c r="C10" s="4">
         <v>1.7888029173439268</v>
       </c>
-      <c r="H10" s="4">
-        <v>-0.3259105395835345</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="D10" s="4">
+        <v>-0.67591053958353453</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="G10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
